--- a/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4284" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4284" uniqueCount="343">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -752,31 +752,25 @@
     <t>ruoloSegretario</t>
   </si>
   <si>
-    <t>Padre Sposo</t>
+    <t>Generalità padre Sposo - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(2,4,5,99)}</t>
-  </si>
-  <si>
-    <t>Padre Sposa</t>
+    <t>Generalità padre Sposa - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].tipoAssistente,in,(2,4,5,99)}</t>
+    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposo</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposa</t>
@@ -7718,7 +7712,7 @@
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="288">
@@ -7741,7 +7735,7 @@
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="289">
@@ -7764,7 +7758,7 @@
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="290">
@@ -7787,7 +7781,7 @@
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="291">
@@ -7810,7 +7804,7 @@
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="292">
@@ -7833,7 +7827,7 @@
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="293">
@@ -7856,7 +7850,7 @@
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="294">
@@ -7879,7 +7873,7 @@
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="295">
@@ -7902,7 +7896,7 @@
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="296">
@@ -7925,7 +7919,7 @@
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="297">
@@ -7948,7 +7942,7 @@
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="298">
@@ -7971,7 +7965,7 @@
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="299">
@@ -7994,7 +7988,7 @@
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="300">
@@ -8017,7 +8011,7 @@
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="301">
@@ -8040,7 +8034,7 @@
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="302">
@@ -8063,7 +8057,7 @@
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="303">
@@ -8086,7 +8080,7 @@
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="304">
@@ -8109,7 +8103,7 @@
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="305">
@@ -8132,7 +8126,7 @@
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="306">
@@ -8155,7 +8149,7 @@
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="307">
@@ -8178,7 +8172,7 @@
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="308">
@@ -8201,12 +8195,12 @@
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>96</v>
@@ -8215,7 +8209,7 @@
         <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>102</v>
@@ -8224,12 +8218,12 @@
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>98</v>
@@ -8238,7 +8232,7 @@
         <v>33</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>104</v>
@@ -8247,12 +8241,12 @@
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>105</v>
@@ -8261,7 +8255,7 @@
         <v>33</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>106</v>
@@ -8270,12 +8264,12 @@
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>107</v>
@@ -8284,7 +8278,7 @@
         <v>33</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>108</v>
@@ -8293,12 +8287,12 @@
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>109</v>
@@ -8307,7 +8301,7 @@
         <v>33</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>110</v>
@@ -8316,12 +8310,12 @@
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>111</v>
@@ -8330,7 +8324,7 @@
         <v>33</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>112</v>
@@ -8339,12 +8333,12 @@
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>113</v>
@@ -8353,7 +8347,7 @@
         <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>114</v>
@@ -8362,12 +8356,12 @@
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>115</v>
@@ -8376,7 +8370,7 @@
         <v>9</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>116</v>
@@ -8385,12 +8379,12 @@
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>117</v>
@@ -8399,7 +8393,7 @@
         <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>118</v>
@@ -8408,12 +8402,12 @@
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>119</v>
@@ -8422,7 +8416,7 @@
         <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>120</v>
@@ -8431,12 +8425,12 @@
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>121</v>
@@ -8445,7 +8439,7 @@
         <v>33</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>122</v>
@@ -8454,12 +8448,12 @@
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>123</v>
@@ -8468,7 +8462,7 @@
         <v>33</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>124</v>
@@ -8477,12 +8471,12 @@
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>125</v>
@@ -8491,7 +8485,7 @@
         <v>33</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>126</v>
@@ -8500,12 +8494,12 @@
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>127</v>
@@ -8514,7 +8508,7 @@
         <v>33</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>128</v>
@@ -8523,12 +8517,12 @@
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>129</v>
@@ -8537,7 +8531,7 @@
         <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>130</v>
@@ -8546,12 +8540,12 @@
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>131</v>
@@ -8560,7 +8554,7 @@
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>132</v>
@@ -8569,12 +8563,12 @@
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>133</v>
@@ -8583,7 +8577,7 @@
         <v>9</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>134</v>
@@ -8592,12 +8586,12 @@
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>135</v>
@@ -8606,7 +8600,7 @@
         <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>136</v>
@@ -8615,12 +8609,12 @@
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>137</v>
@@ -8629,7 +8623,7 @@
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>138</v>
@@ -8638,12 +8632,12 @@
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>139</v>
@@ -8652,7 +8646,7 @@
         <v>33</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>140</v>
@@ -8661,12 +8655,12 @@
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>141</v>
@@ -8675,7 +8669,7 @@
         <v>33</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>142</v>
@@ -8684,12 +8678,12 @@
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>143</v>
@@ -8698,7 +8692,7 @@
         <v>33</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>144</v>
@@ -8707,12 +8701,12 @@
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>96</v>
@@ -8721,7 +8715,7 @@
         <v>9</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>102</v>
@@ -8730,12 +8724,12 @@
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>98</v>
@@ -8744,7 +8738,7 @@
         <v>33</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>104</v>
@@ -8753,12 +8747,12 @@
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>105</v>
@@ -8767,7 +8761,7 @@
         <v>33</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>106</v>
@@ -8776,12 +8770,12 @@
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>107</v>
@@ -8790,7 +8784,7 @@
         <v>33</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>108</v>
@@ -8799,12 +8793,12 @@
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>109</v>
@@ -8813,7 +8807,7 @@
         <v>33</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>110</v>
@@ -8822,12 +8816,12 @@
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>111</v>
@@ -8836,7 +8830,7 @@
         <v>33</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>112</v>
@@ -8845,12 +8839,12 @@
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>113</v>
@@ -8859,7 +8853,7 @@
         <v>9</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>114</v>
@@ -8868,12 +8862,12 @@
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>115</v>
@@ -8882,7 +8876,7 @@
         <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>116</v>
@@ -8891,12 +8885,12 @@
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>117</v>
@@ -8905,7 +8899,7 @@
         <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>118</v>
@@ -8914,12 +8908,12 @@
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>119</v>
@@ -8928,7 +8922,7 @@
         <v>9</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>120</v>
@@ -8937,12 +8931,12 @@
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>121</v>
@@ -8951,7 +8945,7 @@
         <v>33</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>122</v>
@@ -8960,12 +8954,12 @@
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>123</v>
@@ -8974,7 +8968,7 @@
         <v>33</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>124</v>
@@ -8983,12 +8977,12 @@
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>125</v>
@@ -8997,7 +8991,7 @@
         <v>33</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>126</v>
@@ -9006,12 +9000,12 @@
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>127</v>
@@ -9020,7 +9014,7 @@
         <v>33</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>128</v>
@@ -9029,12 +9023,12 @@
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>129</v>
@@ -9043,7 +9037,7 @@
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>130</v>
@@ -9052,12 +9046,12 @@
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>131</v>
@@ -9066,7 +9060,7 @@
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>132</v>
@@ -9075,12 +9069,12 @@
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>133</v>
@@ -9089,7 +9083,7 @@
         <v>9</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>134</v>
@@ -9098,12 +9092,12 @@
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>135</v>
@@ -9112,7 +9106,7 @@
         <v>9</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>136</v>
@@ -9121,12 +9115,12 @@
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>137</v>
@@ -9135,7 +9129,7 @@
         <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>138</v>
@@ -9144,12 +9138,12 @@
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>139</v>
@@ -9158,7 +9152,7 @@
         <v>33</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>140</v>
@@ -9167,12 +9161,12 @@
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>141</v>
@@ -9181,7 +9175,7 @@
         <v>33</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>142</v>
@@ -9190,12 +9184,12 @@
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>143</v>
@@ -9204,7 +9198,7 @@
         <v>33</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>144</v>
@@ -9213,12 +9207,12 @@
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>96</v>
@@ -9227,7 +9221,7 @@
         <v>9</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>102</v>
@@ -9236,12 +9230,12 @@
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>98</v>
@@ -9250,7 +9244,7 @@
         <v>33</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>104</v>
@@ -9259,12 +9253,12 @@
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>105</v>
@@ -9273,7 +9267,7 @@
         <v>33</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>106</v>
@@ -9282,12 +9276,12 @@
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>107</v>
@@ -9296,7 +9290,7 @@
         <v>33</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>108</v>
@@ -9305,12 +9299,12 @@
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>109</v>
@@ -9319,7 +9313,7 @@
         <v>33</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>110</v>
@@ -9328,12 +9322,12 @@
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>111</v>
@@ -9342,7 +9336,7 @@
         <v>33</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>112</v>
@@ -9351,12 +9345,12 @@
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>113</v>
@@ -9365,7 +9359,7 @@
         <v>9</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>114</v>
@@ -9374,12 +9368,12 @@
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>115</v>
@@ -9388,7 +9382,7 @@
         <v>9</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>116</v>
@@ -9397,12 +9391,12 @@
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>117</v>
@@ -9411,7 +9405,7 @@
         <v>9</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>118</v>
@@ -9420,12 +9414,12 @@
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>119</v>
@@ -9434,7 +9428,7 @@
         <v>9</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>120</v>
@@ -9443,12 +9437,12 @@
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>121</v>
@@ -9457,7 +9451,7 @@
         <v>33</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>122</v>
@@ -9466,12 +9460,12 @@
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>123</v>
@@ -9480,7 +9474,7 @@
         <v>33</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>124</v>
@@ -9489,12 +9483,12 @@
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>125</v>
@@ -9503,7 +9497,7 @@
         <v>33</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>126</v>
@@ -9512,12 +9506,12 @@
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>127</v>
@@ -9526,7 +9520,7 @@
         <v>33</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>128</v>
@@ -9535,12 +9529,12 @@
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>129</v>
@@ -9549,7 +9543,7 @@
         <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>130</v>
@@ -9558,12 +9552,12 @@
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>131</v>
@@ -9572,7 +9566,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>132</v>
@@ -9581,12 +9575,12 @@
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>133</v>
@@ -9595,7 +9589,7 @@
         <v>9</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>134</v>
@@ -9604,12 +9598,12 @@
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>135</v>
@@ -9618,7 +9612,7 @@
         <v>9</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>136</v>
@@ -9627,12 +9621,12 @@
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>137</v>
@@ -9641,7 +9635,7 @@
         <v>9</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>138</v>
@@ -9650,12 +9644,12 @@
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>139</v>
@@ -9664,7 +9658,7 @@
         <v>33</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>140</v>
@@ -9673,12 +9667,12 @@
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>141</v>
@@ -9687,7 +9681,7 @@
         <v>33</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>142</v>
@@ -9696,12 +9690,12 @@
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>143</v>
@@ -9710,7 +9704,7 @@
         <v>33</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>144</v>
@@ -9719,12 +9713,12 @@
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>96</v>
@@ -9742,12 +9736,12 @@
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>98</v>
@@ -9765,12 +9759,12 @@
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>105</v>
@@ -9788,12 +9782,12 @@
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>107</v>
@@ -9811,12 +9805,12 @@
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>109</v>
@@ -9834,12 +9828,12 @@
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>111</v>
@@ -9857,12 +9851,12 @@
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>113</v>
@@ -9880,12 +9874,12 @@
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>115</v>
@@ -9903,12 +9897,12 @@
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>117</v>
@@ -9926,12 +9920,12 @@
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>119</v>
@@ -9949,12 +9943,12 @@
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>121</v>
@@ -9972,12 +9966,12 @@
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>123</v>
@@ -9995,12 +9989,12 @@
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>125</v>
@@ -10018,12 +10012,12 @@
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>127</v>
@@ -10041,12 +10035,12 @@
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>129</v>
@@ -10064,12 +10058,12 @@
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>131</v>
@@ -10087,12 +10081,12 @@
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>133</v>
@@ -10110,12 +10104,12 @@
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>135</v>
@@ -10133,12 +10127,12 @@
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>137</v>
@@ -10156,12 +10150,12 @@
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>139</v>
@@ -10179,12 +10173,12 @@
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>141</v>
@@ -10202,12 +10196,12 @@
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>143</v>
@@ -10225,12 +10219,12 @@
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>96</v>
@@ -10248,12 +10242,12 @@
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>98</v>
@@ -10271,12 +10265,12 @@
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>105</v>
@@ -10294,12 +10288,12 @@
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>107</v>
@@ -10317,12 +10311,12 @@
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>109</v>
@@ -10340,12 +10334,12 @@
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>111</v>
@@ -10363,12 +10357,12 @@
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>113</v>
@@ -10386,12 +10380,12 @@
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>115</v>
@@ -10409,12 +10403,12 @@
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>117</v>
@@ -10432,12 +10426,12 @@
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>119</v>
@@ -10455,12 +10449,12 @@
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>121</v>
@@ -10478,12 +10472,12 @@
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>123</v>
@@ -10501,12 +10495,12 @@
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>125</v>
@@ -10524,12 +10518,12 @@
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>127</v>
@@ -10547,12 +10541,12 @@
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>129</v>
@@ -10570,12 +10564,12 @@
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>131</v>
@@ -10593,12 +10587,12 @@
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>133</v>
@@ -10616,12 +10610,12 @@
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>135</v>
@@ -10639,12 +10633,12 @@
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>137</v>
@@ -10662,12 +10656,12 @@
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>139</v>
@@ -10685,12 +10679,12 @@
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>141</v>
@@ -10708,12 +10702,12 @@
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>143</v>
@@ -10731,12 +10725,12 @@
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>96</v>
@@ -10745,21 +10739,21 @@
         <v>9</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>98</v>
@@ -10768,7 +10762,7 @@
         <v>33</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>104</v>
@@ -10777,12 +10771,12 @@
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>105</v>
@@ -10791,7 +10785,7 @@
         <v>33</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>106</v>
@@ -10800,12 +10794,12 @@
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>107</v>
@@ -10814,7 +10808,7 @@
         <v>33</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>108</v>
@@ -10823,12 +10817,12 @@
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>109</v>
@@ -10837,7 +10831,7 @@
         <v>33</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>110</v>
@@ -10846,12 +10840,12 @@
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>111</v>
@@ -10860,7 +10854,7 @@
         <v>33</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>112</v>
@@ -10869,12 +10863,12 @@
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>113</v>
@@ -10883,7 +10877,7 @@
         <v>9</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>114</v>
@@ -10892,12 +10886,12 @@
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>115</v>
@@ -10906,7 +10900,7 @@
         <v>9</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>116</v>
@@ -10915,12 +10909,12 @@
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>117</v>
@@ -10929,7 +10923,7 @@
         <v>9</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>118</v>
@@ -10938,12 +10932,12 @@
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>119</v>
@@ -10952,7 +10946,7 @@
         <v>9</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>120</v>
@@ -10961,12 +10955,12 @@
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>121</v>
@@ -10975,7 +10969,7 @@
         <v>33</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>122</v>
@@ -10984,12 +10978,12 @@
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>123</v>
@@ -10998,7 +10992,7 @@
         <v>33</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>124</v>
@@ -11007,12 +11001,12 @@
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>125</v>
@@ -11021,7 +11015,7 @@
         <v>33</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>126</v>
@@ -11030,12 +11024,12 @@
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>127</v>
@@ -11044,7 +11038,7 @@
         <v>33</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>128</v>
@@ -11053,12 +11047,12 @@
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>129</v>
@@ -11067,7 +11061,7 @@
         <v>9</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>130</v>
@@ -11076,12 +11070,12 @@
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>131</v>
@@ -11090,7 +11084,7 @@
         <v>9</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>132</v>
@@ -11099,12 +11093,12 @@
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>133</v>
@@ -11113,7 +11107,7 @@
         <v>9</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>134</v>
@@ -11122,12 +11116,12 @@
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>135</v>
@@ -11136,7 +11130,7 @@
         <v>9</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>136</v>
@@ -11145,12 +11139,12 @@
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>137</v>
@@ -11159,7 +11153,7 @@
         <v>9</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>138</v>
@@ -11168,12 +11162,12 @@
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>139</v>
@@ -11182,7 +11176,7 @@
         <v>33</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>140</v>
@@ -11191,12 +11185,12 @@
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>141</v>
@@ -11205,7 +11199,7 @@
         <v>33</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>142</v>
@@ -11214,12 +11208,12 @@
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>143</v>
@@ -11228,7 +11222,7 @@
         <v>33</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>144</v>
@@ -11237,58 +11231,58 @@
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B441" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E441" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C441" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D441" s="2" t="s">
+      <c r="F441" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G441" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="E441" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F441" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G441" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D442" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G442" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="E442" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F442" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G442" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>96</v>
@@ -11297,21 +11291,21 @@
         <v>9</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>98</v>
@@ -11320,7 +11314,7 @@
         <v>33</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>104</v>
@@ -11329,12 +11323,12 @@
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>105</v>
@@ -11343,7 +11337,7 @@
         <v>33</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>106</v>
@@ -11352,12 +11346,12 @@
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>107</v>
@@ -11366,7 +11360,7 @@
         <v>33</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>108</v>
@@ -11375,12 +11369,12 @@
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>109</v>
@@ -11389,7 +11383,7 @@
         <v>33</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>110</v>
@@ -11398,12 +11392,12 @@
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>111</v>
@@ -11412,7 +11406,7 @@
         <v>33</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>112</v>
@@ -11421,12 +11415,12 @@
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>113</v>
@@ -11435,7 +11429,7 @@
         <v>9</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>114</v>
@@ -11444,12 +11438,12 @@
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>115</v>
@@ -11458,7 +11452,7 @@
         <v>9</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>116</v>
@@ -11467,12 +11461,12 @@
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>117</v>
@@ -11481,7 +11475,7 @@
         <v>9</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>118</v>
@@ -11490,12 +11484,12 @@
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>119</v>
@@ -11504,7 +11498,7 @@
         <v>9</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>120</v>
@@ -11513,12 +11507,12 @@
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>121</v>
@@ -11527,7 +11521,7 @@
         <v>33</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E453" s="2" t="s">
         <v>122</v>
@@ -11536,12 +11530,12 @@
         <v>10</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>123</v>
@@ -11550,7 +11544,7 @@
         <v>33</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>124</v>
@@ -11559,12 +11553,12 @@
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>125</v>
@@ -11573,7 +11567,7 @@
         <v>33</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>126</v>
@@ -11582,12 +11576,12 @@
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>127</v>
@@ -11596,7 +11590,7 @@
         <v>33</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>128</v>
@@ -11605,12 +11599,12 @@
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>129</v>
@@ -11619,7 +11613,7 @@
         <v>9</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>130</v>
@@ -11628,12 +11622,12 @@
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>131</v>
@@ -11642,7 +11636,7 @@
         <v>9</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>132</v>
@@ -11651,12 +11645,12 @@
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>133</v>
@@ -11665,7 +11659,7 @@
         <v>9</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>134</v>
@@ -11674,12 +11668,12 @@
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>135</v>
@@ -11688,7 +11682,7 @@
         <v>9</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>136</v>
@@ -11697,12 +11691,12 @@
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>137</v>
@@ -11711,7 +11705,7 @@
         <v>9</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>138</v>
@@ -11720,12 +11714,12 @@
         <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>139</v>
@@ -11734,7 +11728,7 @@
         <v>33</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>140</v>
@@ -11743,12 +11737,12 @@
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>141</v>
@@ -11757,7 +11751,7 @@
         <v>33</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>142</v>
@@ -11766,12 +11760,12 @@
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>143</v>
@@ -11780,7 +11774,7 @@
         <v>33</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>144</v>
@@ -11789,12 +11783,12 @@
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>192</v>
@@ -11803,7 +11797,7 @@
         <v>9</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>194</v>
@@ -11812,12 +11806,12 @@
         <v>40</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>196</v>
@@ -11826,7 +11820,7 @@
         <v>9</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>197</v>
@@ -11835,12 +11829,12 @@
         <v>40</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>198</v>
@@ -11849,7 +11843,7 @@
         <v>9</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>199</v>
@@ -11858,12 +11852,12 @@
         <v>40</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>200</v>
@@ -11872,7 +11866,7 @@
         <v>9</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>201</v>
@@ -11881,12 +11875,12 @@
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>202</v>
@@ -11895,7 +11889,7 @@
         <v>9</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>203</v>
@@ -11904,12 +11898,12 @@
         <v>40</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>204</v>
@@ -11918,7 +11912,7 @@
         <v>9</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>205</v>
@@ -11927,12 +11921,12 @@
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>206</v>
@@ -11941,7 +11935,7 @@
         <v>9</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>207</v>
@@ -11950,12 +11944,12 @@
         <v>40</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>166</v>
@@ -11964,7 +11958,7 @@
         <v>9</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>168</v>
@@ -11978,7 +11972,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>169</v>
@@ -11987,7 +11981,7 @@
         <v>33</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>170</v>
@@ -12001,7 +11995,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>171</v>
@@ -12010,7 +12004,7 @@
         <v>33</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E474" s="2" t="s">
         <v>172</v>
@@ -12024,7 +12018,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>173</v>
@@ -12033,7 +12027,7 @@
         <v>33</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E475" s="2" t="s">
         <v>174</v>
@@ -12047,7 +12041,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>175</v>
@@ -12056,7 +12050,7 @@
         <v>33</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>176</v>
@@ -12070,7 +12064,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>177</v>
@@ -12079,7 +12073,7 @@
         <v>33</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E477" s="2" t="s">
         <v>178</v>
@@ -12093,7 +12087,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>179</v>
@@ -12102,7 +12096,7 @@
         <v>33</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>59</v>
@@ -12116,7 +12110,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>180</v>
@@ -12125,7 +12119,7 @@
         <v>33</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E479" s="2" t="s">
         <v>181</v>
@@ -12139,7 +12133,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>182</v>
@@ -12148,7 +12142,7 @@
         <v>33</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>62</v>
@@ -12162,7 +12156,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>183</v>
@@ -12171,7 +12165,7 @@
         <v>33</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E481" s="2" t="s">
         <v>184</v>
@@ -12185,7 +12179,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>185</v>
@@ -12194,7 +12188,7 @@
         <v>9</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>186</v>
@@ -12208,7 +12202,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>187</v>
@@ -12217,7 +12211,7 @@
         <v>9</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E483" s="2" t="s">
         <v>188</v>
@@ -12231,7 +12225,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>68</v>
@@ -12240,7 +12234,7 @@
         <v>33</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E484" s="2" t="s">
         <v>69</v>
@@ -12254,7 +12248,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>96</v>
@@ -12263,7 +12257,7 @@
         <v>9</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E485" s="2" t="s">
         <v>102</v>
@@ -12272,12 +12266,12 @@
         <v>10</v>
       </c>
       <c r="G485" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>98</v>
@@ -12286,7 +12280,7 @@
         <v>33</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E486" s="2" t="s">
         <v>104</v>
@@ -12295,12 +12289,12 @@
         <v>10</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>105</v>
@@ -12309,7 +12303,7 @@
         <v>33</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E487" s="2" t="s">
         <v>106</v>
@@ -12318,12 +12312,12 @@
         <v>10</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>107</v>
@@ -12332,7 +12326,7 @@
         <v>33</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E488" s="2" t="s">
         <v>108</v>
@@ -12341,12 +12335,12 @@
         <v>10</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>109</v>
@@ -12355,7 +12349,7 @@
         <v>33</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E489" s="2" t="s">
         <v>110</v>
@@ -12364,12 +12358,12 @@
         <v>10</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>111</v>
@@ -12378,7 +12372,7 @@
         <v>33</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E490" s="2" t="s">
         <v>112</v>
@@ -12387,12 +12381,12 @@
         <v>10</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>113</v>
@@ -12401,7 +12395,7 @@
         <v>9</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E491" s="2" t="s">
         <v>114</v>
@@ -12410,12 +12404,12 @@
         <v>10</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>115</v>
@@ -12424,7 +12418,7 @@
         <v>9</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E492" s="2" t="s">
         <v>116</v>
@@ -12433,12 +12427,12 @@
         <v>10</v>
       </c>
       <c r="G492" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>117</v>
@@ -12447,7 +12441,7 @@
         <v>9</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E493" s="2" t="s">
         <v>118</v>
@@ -12456,12 +12450,12 @@
         <v>10</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>119</v>
@@ -12470,7 +12464,7 @@
         <v>9</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E494" s="2" t="s">
         <v>120</v>
@@ -12479,12 +12473,12 @@
         <v>10</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>121</v>
@@ -12493,7 +12487,7 @@
         <v>33</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E495" s="2" t="s">
         <v>122</v>
@@ -12502,12 +12496,12 @@
         <v>10</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>123</v>
@@ -12516,7 +12510,7 @@
         <v>33</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E496" s="2" t="s">
         <v>124</v>
@@ -12525,12 +12519,12 @@
         <v>10</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>125</v>
@@ -12539,7 +12533,7 @@
         <v>33</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E497" s="2" t="s">
         <v>126</v>
@@ -12548,12 +12542,12 @@
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>127</v>
@@ -12562,7 +12556,7 @@
         <v>33</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E498" s="2" t="s">
         <v>128</v>
@@ -12571,12 +12565,12 @@
         <v>10</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>129</v>
@@ -12585,7 +12579,7 @@
         <v>9</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E499" s="2" t="s">
         <v>130</v>
@@ -12594,12 +12588,12 @@
         <v>10</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>131</v>
@@ -12608,7 +12602,7 @@
         <v>9</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E500" s="2" t="s">
         <v>132</v>
@@ -12617,12 +12611,12 @@
         <v>10</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>133</v>
@@ -12631,7 +12625,7 @@
         <v>9</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E501" s="2" t="s">
         <v>134</v>
@@ -12640,12 +12634,12 @@
         <v>10</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>135</v>
@@ -12654,7 +12648,7 @@
         <v>9</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E502" s="2" t="s">
         <v>136</v>
@@ -12663,12 +12657,12 @@
         <v>10</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>137</v>
@@ -12677,7 +12671,7 @@
         <v>9</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>138</v>
@@ -12686,12 +12680,12 @@
         <v>10</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>139</v>
@@ -12700,7 +12694,7 @@
         <v>33</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E504" s="2" t="s">
         <v>140</v>
@@ -12709,12 +12703,12 @@
         <v>10</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>141</v>
@@ -12723,7 +12717,7 @@
         <v>33</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E505" s="2" t="s">
         <v>142</v>
@@ -12732,12 +12726,12 @@
         <v>10</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>143</v>
@@ -12746,7 +12740,7 @@
         <v>33</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>144</v>
@@ -12755,12 +12749,12 @@
         <v>10</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>96</v>
@@ -12769,7 +12763,7 @@
         <v>9</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>102</v>
@@ -12778,12 +12772,12 @@
         <v>10</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>98</v>
@@ -12792,7 +12786,7 @@
         <v>33</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E508" s="2" t="s">
         <v>104</v>
@@ -12801,12 +12795,12 @@
         <v>10</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>105</v>
@@ -12815,7 +12809,7 @@
         <v>33</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E509" s="2" t="s">
         <v>106</v>
@@ -12824,12 +12818,12 @@
         <v>10</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>107</v>
@@ -12838,7 +12832,7 @@
         <v>33</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E510" s="2" t="s">
         <v>108</v>
@@ -12847,12 +12841,12 @@
         <v>10</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>109</v>
@@ -12861,7 +12855,7 @@
         <v>33</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E511" s="2" t="s">
         <v>110</v>
@@ -12870,12 +12864,12 @@
         <v>10</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>111</v>
@@ -12884,7 +12878,7 @@
         <v>33</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>112</v>
@@ -12893,12 +12887,12 @@
         <v>10</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>113</v>
@@ -12907,7 +12901,7 @@
         <v>9</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>114</v>
@@ -12916,12 +12910,12 @@
         <v>10</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>115</v>
@@ -12930,7 +12924,7 @@
         <v>9</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>116</v>
@@ -12939,12 +12933,12 @@
         <v>10</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>117</v>
@@ -12953,7 +12947,7 @@
         <v>9</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E515" s="2" t="s">
         <v>118</v>
@@ -12962,12 +12956,12 @@
         <v>10</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>119</v>
@@ -12976,7 +12970,7 @@
         <v>9</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>120</v>
@@ -12985,12 +12979,12 @@
         <v>10</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>121</v>
@@ -12999,7 +12993,7 @@
         <v>33</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>122</v>
@@ -13008,12 +13002,12 @@
         <v>10</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>123</v>
@@ -13022,7 +13016,7 @@
         <v>33</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E518" s="2" t="s">
         <v>124</v>
@@ -13031,12 +13025,12 @@
         <v>10</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>125</v>
@@ -13045,7 +13039,7 @@
         <v>33</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E519" s="2" t="s">
         <v>126</v>
@@ -13054,12 +13048,12 @@
         <v>10</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>127</v>
@@ -13068,7 +13062,7 @@
         <v>33</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E520" s="2" t="s">
         <v>128</v>
@@ -13077,12 +13071,12 @@
         <v>10</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>129</v>
@@ -13091,7 +13085,7 @@
         <v>9</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E521" s="2" t="s">
         <v>130</v>
@@ -13100,12 +13094,12 @@
         <v>10</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>131</v>
@@ -13114,7 +13108,7 @@
         <v>9</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E522" s="2" t="s">
         <v>132</v>
@@ -13123,12 +13117,12 @@
         <v>10</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>133</v>
@@ -13137,7 +13131,7 @@
         <v>9</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E523" s="2" t="s">
         <v>134</v>
@@ -13146,12 +13140,12 @@
         <v>10</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>135</v>
@@ -13160,7 +13154,7 @@
         <v>9</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>136</v>
@@ -13169,12 +13163,12 @@
         <v>10</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>137</v>
@@ -13183,7 +13177,7 @@
         <v>9</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E525" s="2" t="s">
         <v>138</v>
@@ -13192,12 +13186,12 @@
         <v>10</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>139</v>
@@ -13206,7 +13200,7 @@
         <v>33</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>140</v>
@@ -13215,12 +13209,12 @@
         <v>10</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>141</v>
@@ -13229,7 +13223,7 @@
         <v>33</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>142</v>
@@ -13238,12 +13232,12 @@
         <v>10</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>143</v>
@@ -13252,7 +13246,7 @@
         <v>33</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E528" s="2" t="s">
         <v>144</v>
@@ -13261,58 +13255,58 @@
         <v>10</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E529" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B529" s="2" t="s">
+      <c r="F529" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G529" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C529" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E529" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F529" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G529" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>192</v>
@@ -13321,7 +13315,7 @@
         <v>9</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>194</v>
@@ -13330,12 +13324,12 @@
         <v>40</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>196</v>
@@ -13344,7 +13338,7 @@
         <v>9</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E532" s="2" t="s">
         <v>197</v>
@@ -13353,12 +13347,12 @@
         <v>40</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B533" s="2" t="s">
         <v>198</v>
@@ -13367,7 +13361,7 @@
         <v>9</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>199</v>
@@ -13376,12 +13370,12 @@
         <v>40</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B534" s="2" t="s">
         <v>200</v>
@@ -13390,7 +13384,7 @@
         <v>9</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E534" s="2" t="s">
         <v>201</v>
@@ -13399,12 +13393,12 @@
         <v>10</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B535" s="2" t="s">
         <v>202</v>
@@ -13413,7 +13407,7 @@
         <v>9</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E535" s="2" t="s">
         <v>203</v>
@@ -13422,12 +13416,12 @@
         <v>40</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B536" s="2" t="s">
         <v>204</v>
@@ -13436,7 +13430,7 @@
         <v>9</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>205</v>
@@ -13445,12 +13439,12 @@
         <v>10</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>206</v>
@@ -13459,7 +13453,7 @@
         <v>9</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>207</v>
@@ -13468,12 +13462,12 @@
         <v>40</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B538" s="2" t="s">
         <v>166</v>
@@ -13482,7 +13476,7 @@
         <v>9</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>168</v>
@@ -13491,12 +13485,12 @@
         <v>10</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B539" s="2" t="s">
         <v>169</v>
@@ -13505,7 +13499,7 @@
         <v>33</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>170</v>
@@ -13514,12 +13508,12 @@
         <v>10</v>
       </c>
       <c r="G539" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B540" s="2" t="s">
         <v>171</v>
@@ -13528,7 +13522,7 @@
         <v>33</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>172</v>
@@ -13537,12 +13531,12 @@
         <v>10</v>
       </c>
       <c r="G540" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B541" s="2" t="s">
         <v>173</v>
@@ -13551,7 +13545,7 @@
         <v>33</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>174</v>
@@ -13560,12 +13554,12 @@
         <v>10</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B542" s="2" t="s">
         <v>175</v>
@@ -13574,7 +13568,7 @@
         <v>33</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E542" s="2" t="s">
         <v>176</v>
@@ -13583,12 +13577,12 @@
         <v>10</v>
       </c>
       <c r="G542" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B543" s="2" t="s">
         <v>177</v>
@@ -13597,7 +13591,7 @@
         <v>33</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>178</v>
@@ -13606,12 +13600,12 @@
         <v>10</v>
       </c>
       <c r="G543" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B544" s="2" t="s">
         <v>179</v>
@@ -13620,7 +13614,7 @@
         <v>33</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E544" s="2" t="s">
         <v>59</v>
@@ -13629,12 +13623,12 @@
         <v>10</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B545" s="2" t="s">
         <v>180</v>
@@ -13643,7 +13637,7 @@
         <v>33</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>181</v>
@@ -13652,12 +13646,12 @@
         <v>10</v>
       </c>
       <c r="G545" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B546" s="2" t="s">
         <v>182</v>
@@ -13666,7 +13660,7 @@
         <v>33</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>62</v>
@@ -13675,12 +13669,12 @@
         <v>10</v>
       </c>
       <c r="G546" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B547" s="2" t="s">
         <v>183</v>
@@ -13689,7 +13683,7 @@
         <v>33</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>184</v>
@@ -13698,12 +13692,12 @@
         <v>10</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>185</v>
@@ -13712,7 +13706,7 @@
         <v>9</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E548" s="2" t="s">
         <v>186</v>
@@ -13721,12 +13715,12 @@
         <v>10</v>
       </c>
       <c r="G548" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B549" s="2" t="s">
         <v>187</v>
@@ -13735,7 +13729,7 @@
         <v>9</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>188</v>
@@ -13744,12 +13738,12 @@
         <v>10</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>96</v>
@@ -13758,7 +13752,7 @@
         <v>9</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E550" s="2" t="s">
         <v>102</v>
@@ -13767,12 +13761,12 @@
         <v>10</v>
       </c>
       <c r="G550" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B551" s="2" t="s">
         <v>98</v>
@@ -13781,7 +13775,7 @@
         <v>9</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E551" s="2" t="s">
         <v>104</v>
@@ -13790,12 +13784,12 @@
         <v>10</v>
       </c>
       <c r="G551" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B552" s="2" t="s">
         <v>105</v>
@@ -13804,7 +13798,7 @@
         <v>9</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E552" s="2" t="s">
         <v>106</v>
@@ -13813,12 +13807,12 @@
         <v>10</v>
       </c>
       <c r="G552" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B553" s="2" t="s">
         <v>107</v>
@@ -13827,7 +13821,7 @@
         <v>9</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E553" s="2" t="s">
         <v>108</v>
@@ -13836,12 +13830,12 @@
         <v>10</v>
       </c>
       <c r="G553" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B554" s="2" t="s">
         <v>109</v>
@@ -13850,7 +13844,7 @@
         <v>9</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E554" s="2" t="s">
         <v>110</v>
@@ -13859,12 +13853,12 @@
         <v>10</v>
       </c>
       <c r="G554" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B555" s="2" t="s">
         <v>111</v>
@@ -13873,7 +13867,7 @@
         <v>9</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E555" s="2" t="s">
         <v>112</v>
@@ -13882,12 +13876,12 @@
         <v>10</v>
       </c>
       <c r="G555" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B556" s="2" t="s">
         <v>113</v>
@@ -13896,7 +13890,7 @@
         <v>9</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E556" s="2" t="s">
         <v>114</v>
@@ -13905,12 +13899,12 @@
         <v>10</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B557" s="2" t="s">
         <v>115</v>
@@ -13919,7 +13913,7 @@
         <v>9</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E557" s="2" t="s">
         <v>116</v>
@@ -13928,12 +13922,12 @@
         <v>10</v>
       </c>
       <c r="G557" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B558" s="2" t="s">
         <v>117</v>
@@ -13942,7 +13936,7 @@
         <v>9</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E558" s="2" t="s">
         <v>118</v>
@@ -13951,12 +13945,12 @@
         <v>10</v>
       </c>
       <c r="G558" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B559" s="2" t="s">
         <v>119</v>
@@ -13965,7 +13959,7 @@
         <v>9</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>120</v>
@@ -13974,12 +13968,12 @@
         <v>10</v>
       </c>
       <c r="G559" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B560" s="2" t="s">
         <v>121</v>
@@ -13988,7 +13982,7 @@
         <v>9</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E560" s="2" t="s">
         <v>122</v>
@@ -13997,12 +13991,12 @@
         <v>10</v>
       </c>
       <c r="G560" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B561" s="2" t="s">
         <v>123</v>
@@ -14011,7 +14005,7 @@
         <v>9</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E561" s="2" t="s">
         <v>124</v>
@@ -14020,12 +14014,12 @@
         <v>10</v>
       </c>
       <c r="G561" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B562" s="2" t="s">
         <v>125</v>
@@ -14034,7 +14028,7 @@
         <v>9</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E562" s="2" t="s">
         <v>126</v>
@@ -14043,12 +14037,12 @@
         <v>10</v>
       </c>
       <c r="G562" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B563" s="2" t="s">
         <v>127</v>
@@ -14057,7 +14051,7 @@
         <v>9</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E563" s="2" t="s">
         <v>128</v>
@@ -14066,12 +14060,12 @@
         <v>10</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B564" s="2" t="s">
         <v>129</v>
@@ -14080,7 +14074,7 @@
         <v>9</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E564" s="2" t="s">
         <v>130</v>
@@ -14089,12 +14083,12 @@
         <v>10</v>
       </c>
       <c r="G564" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B565" s="2" t="s">
         <v>131</v>
@@ -14103,7 +14097,7 @@
         <v>9</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E565" s="2" t="s">
         <v>132</v>
@@ -14112,12 +14106,12 @@
         <v>10</v>
       </c>
       <c r="G565" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B566" s="2" t="s">
         <v>133</v>
@@ -14126,7 +14120,7 @@
         <v>9</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E566" s="2" t="s">
         <v>134</v>
@@ -14135,12 +14129,12 @@
         <v>10</v>
       </c>
       <c r="G566" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B567" s="2" t="s">
         <v>135</v>
@@ -14149,7 +14143,7 @@
         <v>9</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E567" s="2" t="s">
         <v>136</v>
@@ -14158,12 +14152,12 @@
         <v>10</v>
       </c>
       <c r="G567" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B568" s="2" t="s">
         <v>137</v>
@@ -14172,7 +14166,7 @@
         <v>9</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E568" s="2" t="s">
         <v>138</v>
@@ -14181,12 +14175,12 @@
         <v>10</v>
       </c>
       <c r="G568" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B569" s="2" t="s">
         <v>139</v>
@@ -14195,7 +14189,7 @@
         <v>9</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E569" s="2" t="s">
         <v>140</v>
@@ -14204,12 +14198,12 @@
         <v>10</v>
       </c>
       <c r="G569" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B570" s="2" t="s">
         <v>141</v>
@@ -14218,7 +14212,7 @@
         <v>9</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E570" s="2" t="s">
         <v>142</v>
@@ -14227,12 +14221,12 @@
         <v>10</v>
       </c>
       <c r="G570" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B571" s="2" t="s">
         <v>143</v>
@@ -14241,7 +14235,7 @@
         <v>9</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E571" s="2" t="s">
         <v>144</v>
@@ -14250,12 +14244,12 @@
         <v>10</v>
       </c>
       <c r="G571" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B572" s="2" t="s">
         <v>96</v>
@@ -14264,21 +14258,21 @@
         <v>9</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E572" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G572" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B573" s="2" t="s">
         <v>98</v>
@@ -14287,7 +14281,7 @@
         <v>33</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E573" s="2" t="s">
         <v>104</v>
@@ -14296,12 +14290,12 @@
         <v>10</v>
       </c>
       <c r="G573" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>105</v>
@@ -14310,7 +14304,7 @@
         <v>33</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E574" s="2" t="s">
         <v>106</v>
@@ -14319,12 +14313,12 @@
         <v>10</v>
       </c>
       <c r="G574" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B575" s="2" t="s">
         <v>107</v>
@@ -14333,7 +14327,7 @@
         <v>33</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E575" s="2" t="s">
         <v>108</v>
@@ -14342,12 +14336,12 @@
         <v>10</v>
       </c>
       <c r="G575" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B576" s="2" t="s">
         <v>109</v>
@@ -14356,7 +14350,7 @@
         <v>33</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E576" s="2" t="s">
         <v>110</v>
@@ -14365,12 +14359,12 @@
         <v>10</v>
       </c>
       <c r="G576" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B577" s="2" t="s">
         <v>111</v>
@@ -14379,7 +14373,7 @@
         <v>33</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E577" s="2" t="s">
         <v>112</v>
@@ -14388,12 +14382,12 @@
         <v>10</v>
       </c>
       <c r="G577" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B578" s="2" t="s">
         <v>113</v>
@@ -14402,7 +14396,7 @@
         <v>9</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>114</v>
@@ -14411,12 +14405,12 @@
         <v>10</v>
       </c>
       <c r="G578" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B579" s="2" t="s">
         <v>115</v>
@@ -14425,7 +14419,7 @@
         <v>9</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E579" s="2" t="s">
         <v>116</v>
@@ -14434,12 +14428,12 @@
         <v>10</v>
       </c>
       <c r="G579" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B580" s="2" t="s">
         <v>117</v>
@@ -14448,7 +14442,7 @@
         <v>9</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E580" s="2" t="s">
         <v>118</v>
@@ -14457,12 +14451,12 @@
         <v>10</v>
       </c>
       <c r="G580" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B581" s="2" t="s">
         <v>119</v>
@@ -14471,21 +14465,21 @@
         <v>9</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G581" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B582" s="2" t="s">
         <v>121</v>
@@ -14494,7 +14488,7 @@
         <v>33</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E582" s="2" t="s">
         <v>122</v>
@@ -14503,12 +14497,12 @@
         <v>10</v>
       </c>
       <c r="G582" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B583" s="2" t="s">
         <v>123</v>
@@ -14517,7 +14511,7 @@
         <v>33</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>124</v>
@@ -14526,12 +14520,12 @@
         <v>10</v>
       </c>
       <c r="G583" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B584" s="2" t="s">
         <v>125</v>
@@ -14540,7 +14534,7 @@
         <v>33</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E584" s="2" t="s">
         <v>126</v>
@@ -14549,12 +14543,12 @@
         <v>10</v>
       </c>
       <c r="G584" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B585" s="2" t="s">
         <v>127</v>
@@ -14563,7 +14557,7 @@
         <v>33</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>128</v>
@@ -14572,12 +14566,12 @@
         <v>10</v>
       </c>
       <c r="G585" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B586" s="2" t="s">
         <v>129</v>
@@ -14586,7 +14580,7 @@
         <v>9</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E586" s="2" t="s">
         <v>130</v>
@@ -14595,12 +14589,12 @@
         <v>10</v>
       </c>
       <c r="G586" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B587" s="2" t="s">
         <v>131</v>
@@ -14609,7 +14603,7 @@
         <v>9</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>132</v>
@@ -14618,12 +14612,12 @@
         <v>10</v>
       </c>
       <c r="G587" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B588" s="2" t="s">
         <v>133</v>
@@ -14632,7 +14626,7 @@
         <v>9</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E588" s="2" t="s">
         <v>134</v>
@@ -14641,12 +14635,12 @@
         <v>10</v>
       </c>
       <c r="G588" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B589" s="2" t="s">
         <v>135</v>
@@ -14655,21 +14649,21 @@
         <v>9</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E589" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F589" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G589" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B590" s="2" t="s">
         <v>137</v>
@@ -14678,7 +14672,7 @@
         <v>9</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>138</v>
@@ -14687,12 +14681,12 @@
         <v>10</v>
       </c>
       <c r="G590" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B591" s="2" t="s">
         <v>139</v>
@@ -14701,7 +14695,7 @@
         <v>33</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E591" s="2" t="s">
         <v>140</v>
@@ -14710,12 +14704,12 @@
         <v>10</v>
       </c>
       <c r="G591" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B592" s="2" t="s">
         <v>141</v>
@@ -14724,7 +14718,7 @@
         <v>33</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E592" s="2" t="s">
         <v>142</v>
@@ -14733,12 +14727,12 @@
         <v>10</v>
       </c>
       <c r="G592" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B593" s="2" t="s">
         <v>143</v>
@@ -14747,7 +14741,7 @@
         <v>33</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E593" s="2" t="s">
         <v>144</v>
@@ -14756,15 +14750,15 @@
         <v>10</v>
       </c>
       <c r="G593" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>33</v>
@@ -14773,7 +14767,7 @@
         <v>87</v>
       </c>
       <c r="E594" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F594" s="2" t="s">
         <v>10</v>
@@ -14784,10 +14778,10 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>9</v>
@@ -14796,10 +14790,10 @@
         <v>87</v>
       </c>
       <c r="E595" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G595" s="2" t="s">
         <v>60</v>
@@ -14807,10 +14801,10 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>33</v>
@@ -14819,7 +14813,7 @@
         <v>87</v>
       </c>
       <c r="E596" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F596" s="2" t="s">
         <v>10</v>
@@ -14830,10 +14824,10 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>9</v>
@@ -14842,7 +14836,7 @@
         <v>87</v>
       </c>
       <c r="E597" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F597" s="2" t="s">
         <v>10</v>
@@ -14853,10 +14847,10 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>33</v>
@@ -14865,7 +14859,7 @@
         <v>58</v>
       </c>
       <c r="E598" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F598" s="2" t="s">
         <v>10</v>
@@ -14876,10 +14870,10 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>33</v>
@@ -14888,7 +14882,7 @@
         <v>87</v>
       </c>
       <c r="E599" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F599" s="2" t="s">
         <v>10</v>
@@ -14899,10 +14893,10 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>33</v>
@@ -14911,7 +14905,7 @@
         <v>87</v>
       </c>
       <c r="E600" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F600" s="2" t="s">
         <v>10</v>
@@ -14922,10 +14916,10 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>33</v>
@@ -14934,7 +14928,7 @@
         <v>87</v>
       </c>
       <c r="E601" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F601" s="2" t="s">
         <v>10</v>
@@ -14945,10 +14939,10 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>33</v>
@@ -14957,7 +14951,7 @@
         <v>87</v>
       </c>
       <c r="E602" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F602" s="2" t="s">
         <v>10</v>
@@ -14968,10 +14962,10 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>33</v>
@@ -14980,7 +14974,7 @@
         <v>87</v>
       </c>
       <c r="E603" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F603" s="2" t="s">
         <v>10</v>
@@ -14991,10 +14985,10 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>33</v>
@@ -15003,7 +14997,7 @@
         <v>87</v>
       </c>
       <c r="E604" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F604" s="2" t="s">
         <v>10</v>
@@ -15014,10 +15008,10 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>33</v>
@@ -15026,7 +15020,7 @@
         <v>87</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F605" s="2" t="s">
         <v>10</v>
@@ -15037,19 +15031,19 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F606" s="2" t="s">
         <v>10</v>
@@ -15060,19 +15054,19 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B607" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E607" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C607" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D607" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E607" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="F607" s="2" t="s">
         <v>10</v>
@@ -15083,19 +15077,19 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E608" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F608" s="2" t="s">
         <v>10</v>
@@ -15106,10 +15100,10 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>33</v>
@@ -15118,7 +15112,7 @@
         <v>228</v>
       </c>
       <c r="E609" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F609" s="2" t="s">
         <v>10</v>
@@ -15129,10 +15123,10 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>33</v>
@@ -15141,7 +15135,7 @@
         <v>228</v>
       </c>
       <c r="E610" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F610" s="2" t="s">
         <v>10</v>
@@ -15152,48 +15146,48 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D611" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B611" s="2" t="s">
+      <c r="E611" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C611" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D611" s="2" t="s">
+      <c r="F611" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G611" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="E611" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F611" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G611" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D612" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B612" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C612" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D612" s="2" t="s">
+      <c r="E612" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F612" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G612" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="E612" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F612" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G612" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
@@ -2283,7 +2283,7 @@
         <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>94</v>
@@ -2292,7 +2292,7 @@
         <v>95</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>57</v>
@@ -2329,7 +2329,7 @@
         <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>94</v>
@@ -2352,7 +2352,7 @@
         <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>94</v>
@@ -2375,7 +2375,7 @@
         <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>94</v>
@@ -2398,7 +2398,7 @@
         <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>94</v>
@@ -2513,7 +2513,7 @@
         <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>94</v>
@@ -2536,7 +2536,7 @@
         <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>94</v>
@@ -2559,7 +2559,7 @@
         <v>118</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>94</v>
@@ -2582,7 +2582,7 @@
         <v>120</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>94</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
@@ -4221,7 +4221,7 @@
         <v>116</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>152</v>
@@ -4244,7 +4244,7 @@
         <v>118</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>152</v>
@@ -4253,7 +4253,7 @@
         <v>119</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>153</v>
@@ -4750,7 +4750,7 @@
         <v>116</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>155</v>
@@ -4773,7 +4773,7 @@
         <v>118</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>155</v>
@@ -4782,7 +4782,7 @@
         <v>119</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>156</v>
@@ -5279,7 +5279,7 @@
         <v>116</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>158</v>
@@ -5302,7 +5302,7 @@
         <v>118</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>158</v>
@@ -5311,7 +5311,7 @@
         <v>119</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>159</v>
@@ -5808,7 +5808,7 @@
         <v>116</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>161</v>
@@ -5831,7 +5831,7 @@
         <v>118</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>161</v>
@@ -5840,7 +5840,7 @@
         <v>119</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>162</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4438" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4438" uniqueCount="342">
   <si>
     <t>Sezione</t>
   </si>
@@ -896,7 +896,10 @@
     <t>66,68,70,71,72,64</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -15212,7 +15215,7 @@
         <v>291</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>138</v>
+        <v>295</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>33</v>
@@ -15232,10 +15235,10 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>33</v>
@@ -15244,7 +15247,7 @@
         <v>84</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F615" s="2" t="s">
         <v>10</v>
@@ -15255,10 +15258,10 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>9</v>
@@ -15267,10 +15270,10 @@
         <v>84</v>
       </c>
       <c r="E616" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F616" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G616" s="2" t="s">
         <v>57</v>
@@ -15278,10 +15281,10 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>33</v>
@@ -15290,7 +15293,7 @@
         <v>84</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F617" s="2" t="s">
         <v>10</v>
@@ -15301,10 +15304,10 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>9</v>
@@ -15313,7 +15316,7 @@
         <v>84</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F618" s="2" t="s">
         <v>10</v>
@@ -15324,10 +15327,10 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>33</v>
@@ -15336,7 +15339,7 @@
         <v>55</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F619" s="2" t="s">
         <v>10</v>
@@ -15347,10 +15350,10 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>33</v>
@@ -15359,7 +15362,7 @@
         <v>84</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F620" s="2" t="s">
         <v>10</v>
@@ -15370,10 +15373,10 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>33</v>
@@ -15382,7 +15385,7 @@
         <v>84</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F621" s="2" t="s">
         <v>10</v>
@@ -15393,10 +15396,10 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>33</v>
@@ -15405,7 +15408,7 @@
         <v>84</v>
       </c>
       <c r="E622" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F622" s="2" t="s">
         <v>10</v>
@@ -15416,10 +15419,10 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>33</v>
@@ -15428,7 +15431,7 @@
         <v>84</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F623" s="2" t="s">
         <v>10</v>
@@ -15439,10 +15442,10 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>33</v>
@@ -15451,7 +15454,7 @@
         <v>84</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F624" s="2" t="s">
         <v>10</v>
@@ -15462,10 +15465,10 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>33</v>
@@ -15474,7 +15477,7 @@
         <v>260</v>
       </c>
       <c r="E625" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F625" s="2" t="s">
         <v>10</v>
@@ -15485,19 +15488,19 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E626" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F626" s="2" t="s">
         <v>10</v>
@@ -15508,10 +15511,10 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>9</v>
@@ -15520,7 +15523,7 @@
         <v>260</v>
       </c>
       <c r="E627" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F627" s="2" t="s">
         <v>10</v>
@@ -15531,10 +15534,10 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>33</v>
@@ -15543,7 +15546,7 @@
         <v>221</v>
       </c>
       <c r="E628" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F628" s="2" t="s">
         <v>10</v>
@@ -15554,10 +15557,10 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>33</v>
@@ -15566,7 +15569,7 @@
         <v>221</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F629" s="2" t="s">
         <v>10</v>
@@ -15577,10 +15580,10 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>9</v>
@@ -15589,7 +15592,7 @@
         <v>84</v>
       </c>
       <c r="E630" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F630" s="2" t="s">
         <v>10</v>
@@ -15600,10 +15603,10 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>9</v>
@@ -15612,7 +15615,7 @@
         <v>84</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F631" s="2" t="s">
         <v>10</v>
@@ -15623,71 +15626,71 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E632" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F632" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G632" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B633" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E633" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F633" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G633" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="C633" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D633" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E633" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F633" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G633" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F634" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G634" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4438" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4438" uniqueCount="341">
   <si>
     <t>Sezione</t>
   </si>
@@ -897,9 +897,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -15215,7 +15212,7 @@
         <v>291</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>295</v>
+        <v>138</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>33</v>
@@ -15235,10 +15232,10 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B615" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B615" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>33</v>
@@ -15247,7 +15244,7 @@
         <v>84</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F615" s="2" t="s">
         <v>10</v>
@@ -15258,10 +15255,10 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>9</v>
@@ -15270,10 +15267,10 @@
         <v>84</v>
       </c>
       <c r="E616" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F616" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="F616" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="G616" s="2" t="s">
         <v>57</v>
@@ -15281,10 +15278,10 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>33</v>
@@ -15293,7 +15290,7 @@
         <v>84</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F617" s="2" t="s">
         <v>10</v>
@@ -15304,10 +15301,10 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>9</v>
@@ -15316,7 +15313,7 @@
         <v>84</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F618" s="2" t="s">
         <v>10</v>
@@ -15327,10 +15324,10 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>33</v>
@@ -15339,7 +15336,7 @@
         <v>55</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F619" s="2" t="s">
         <v>10</v>
@@ -15350,10 +15347,10 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>33</v>
@@ -15362,7 +15359,7 @@
         <v>84</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F620" s="2" t="s">
         <v>10</v>
@@ -15373,10 +15370,10 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>33</v>
@@ -15385,7 +15382,7 @@
         <v>84</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F621" s="2" t="s">
         <v>10</v>
@@ -15396,10 +15393,10 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>33</v>
@@ -15408,7 +15405,7 @@
         <v>84</v>
       </c>
       <c r="E622" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F622" s="2" t="s">
         <v>10</v>
@@ -15419,10 +15416,10 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>33</v>
@@ -15431,7 +15428,7 @@
         <v>84</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F623" s="2" t="s">
         <v>10</v>
@@ -15442,10 +15439,10 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>33</v>
@@ -15454,7 +15451,7 @@
         <v>84</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F624" s="2" t="s">
         <v>10</v>
@@ -15465,10 +15462,10 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>33</v>
@@ -15477,7 +15474,7 @@
         <v>260</v>
       </c>
       <c r="E625" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F625" s="2" t="s">
         <v>10</v>
@@ -15488,19 +15485,19 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B626" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D626" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C626" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D626" s="2" t="s">
+      <c r="E626" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="E626" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="F626" s="2" t="s">
         <v>10</v>
@@ -15511,10 +15508,10 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>9</v>
@@ -15523,7 +15520,7 @@
         <v>260</v>
       </c>
       <c r="E627" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F627" s="2" t="s">
         <v>10</v>
@@ -15534,10 +15531,10 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>33</v>
@@ -15546,7 +15543,7 @@
         <v>221</v>
       </c>
       <c r="E628" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F628" s="2" t="s">
         <v>10</v>
@@ -15557,10 +15554,10 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>33</v>
@@ -15569,7 +15566,7 @@
         <v>221</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F629" s="2" t="s">
         <v>10</v>
@@ -15580,10 +15577,10 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>9</v>
@@ -15592,7 +15589,7 @@
         <v>84</v>
       </c>
       <c r="E630" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F630" s="2" t="s">
         <v>10</v>
@@ -15603,10 +15600,10 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>9</v>
@@ -15615,7 +15612,7 @@
         <v>84</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F631" s="2" t="s">
         <v>10</v>
@@ -15626,71 +15623,71 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B632" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B632" s="2" t="s">
+      <c r="C632" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D632" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C632" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D632" s="2" t="s">
+      <c r="E632" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E632" s="2" t="s">
+      <c r="F632" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G632" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="F632" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G632" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B633" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E633" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C633" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D633" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E633" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="F633" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G633" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B634" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E634" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C634" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D634" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E634" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="F634" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G634" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4438" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4438" uniqueCount="342">
   <si>
     <t>Sezione</t>
   </si>
@@ -897,6 +897,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -15212,7 +15215,7 @@
         <v>291</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>138</v>
+        <v>295</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>33</v>
@@ -15232,10 +15235,10 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>33</v>
@@ -15244,7 +15247,7 @@
         <v>84</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F615" s="2" t="s">
         <v>10</v>
@@ -15255,10 +15258,10 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>9</v>
@@ -15267,10 +15270,10 @@
         <v>84</v>
       </c>
       <c r="E616" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F616" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G616" s="2" t="s">
         <v>57</v>
@@ -15278,10 +15281,10 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>33</v>
@@ -15290,7 +15293,7 @@
         <v>84</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F617" s="2" t="s">
         <v>10</v>
@@ -15301,10 +15304,10 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>9</v>
@@ -15313,7 +15316,7 @@
         <v>84</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F618" s="2" t="s">
         <v>10</v>
@@ -15324,10 +15327,10 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>33</v>
@@ -15336,7 +15339,7 @@
         <v>55</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F619" s="2" t="s">
         <v>10</v>
@@ -15347,10 +15350,10 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>33</v>
@@ -15359,7 +15362,7 @@
         <v>84</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F620" s="2" t="s">
         <v>10</v>
@@ -15370,10 +15373,10 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>33</v>
@@ -15382,7 +15385,7 @@
         <v>84</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F621" s="2" t="s">
         <v>10</v>
@@ -15393,10 +15396,10 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>33</v>
@@ -15405,7 +15408,7 @@
         <v>84</v>
       </c>
       <c r="E622" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F622" s="2" t="s">
         <v>10</v>
@@ -15416,10 +15419,10 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>33</v>
@@ -15428,7 +15431,7 @@
         <v>84</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F623" s="2" t="s">
         <v>10</v>
@@ -15439,10 +15442,10 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>33</v>
@@ -15451,7 +15454,7 @@
         <v>84</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F624" s="2" t="s">
         <v>10</v>
@@ -15462,10 +15465,10 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>33</v>
@@ -15474,7 +15477,7 @@
         <v>260</v>
       </c>
       <c r="E625" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F625" s="2" t="s">
         <v>10</v>
@@ -15485,19 +15488,19 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E626" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F626" s="2" t="s">
         <v>10</v>
@@ -15508,10 +15511,10 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>9</v>
@@ -15520,7 +15523,7 @@
         <v>260</v>
       </c>
       <c r="E627" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F627" s="2" t="s">
         <v>10</v>
@@ -15531,10 +15534,10 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>33</v>
@@ -15543,7 +15546,7 @@
         <v>221</v>
       </c>
       <c r="E628" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F628" s="2" t="s">
         <v>10</v>
@@ -15554,10 +15557,10 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>33</v>
@@ -15566,7 +15569,7 @@
         <v>221</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F629" s="2" t="s">
         <v>10</v>
@@ -15577,10 +15580,10 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>9</v>
@@ -15589,7 +15592,7 @@
         <v>84</v>
       </c>
       <c r="E630" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F630" s="2" t="s">
         <v>10</v>
@@ -15600,10 +15603,10 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>9</v>
@@ -15612,7 +15615,7 @@
         <v>84</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F631" s="2" t="s">
         <v>10</v>
@@ -15623,71 +15626,71 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E632" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F632" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G632" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B633" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E633" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F633" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G633" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="C633" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D633" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E633" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F633" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G633" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F634" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G634" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
@@ -4754,7 +4754,7 @@
         <v>98</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>164</v>
@@ -4763,7 +4763,7 @@
         <v>99</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>165</v>
@@ -5283,7 +5283,7 @@
         <v>98</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>167</v>
@@ -5292,7 +5292,7 @@
         <v>99</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>168</v>
@@ -5812,7 +5812,7 @@
         <v>98</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>170</v>
@@ -5821,7 +5821,7 @@
         <v>99</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>171</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
@@ -16896,7 +16896,7 @@
         <v>120</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D685" s="2" t="s">
         <v>308</v>
@@ -16919,7 +16919,7 @@
         <v>122</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D686" s="2" t="s">
         <v>308</v>
@@ -16928,7 +16928,7 @@
         <v>123</v>
       </c>
       <c r="F686" s="2" t="s">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="G686" s="2" t="s">
         <v>310</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
@@ -14542,7 +14542,7 @@
         <v>203</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G582" s="2" t="s">
         <v>59</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_011.xlsx
@@ -479,64 +479,64 @@
     <t>66,67,68,119,71,61,63,64,65</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>In imminente pericolo di vita</t>
+  </si>
+  <si>
+    <t>sposoInPericoloVita</t>
+  </si>
+  <si>
+    <t>Accertamento volontà</t>
+  </si>
+  <si>
+    <t>accertamentoVolontaSposo</t>
+  </si>
+  <si>
+    <t>Generalità Sposa</t>
+  </si>
+  <si>
+    <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>sposaInPericoloVita</t>
+  </si>
+  <si>
+    <t>accertamentoVolontaSposa</t>
+  </si>
+  <si>
+    <t>Testimone 1</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.testimone1</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,1</t>
+  </si>
+  <si>
     <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>Provincia AIRE</t>
-  </si>
-  <si>
-    <t>idProvinciaAIRE</t>
-  </si>
-  <si>
-    <t>Provincia AIRE - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaAIRE</t>
-  </si>
-  <si>
-    <t>Comune AIRE</t>
-  </si>
-  <si>
-    <t>idComuneAIRE</t>
-  </si>
-  <si>
-    <t>Comune AIRE - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>In imminente pericolo di vita</t>
-  </si>
-  <si>
-    <t>sposoInPericoloVita</t>
-  </si>
-  <si>
-    <t>Accertamento volontà</t>
-  </si>
-  <si>
-    <t>accertamentoVolontaSposo</t>
-  </si>
-  <si>
-    <t>Generalità Sposa</t>
-  </si>
-  <si>
-    <t>evento.intestatari[1]</t>
-  </si>
-  <si>
-    <t>sposaInPericoloVita</t>
-  </si>
-  <si>
-    <t>accertamentoVolontaSposa</t>
-  </si>
-  <si>
-    <t>Testimone 1</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.testimone1</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,1</t>
   </si>
   <si>
     <t>Testimone 2</t>
@@ -3663,10 +3663,10 @@
         <v>152</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>153</v>
@@ -3675,7 +3675,7 @@
         <v>151</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>59</v>
@@ -3686,7 +3686,7 @@
         <v>152</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3695,7 +3695,7 @@
         <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3709,7 +3709,7 @@
         <v>152</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3718,7 +3718,7 @@
         <v>153</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>35</v>
@@ -3732,7 +3732,7 @@
         <v>152</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3741,7 +3741,7 @@
         <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3755,7 +3755,7 @@
         <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3764,7 +3764,7 @@
         <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>35</v>
@@ -3778,7 +3778,7 @@
         <v>152</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>33</v>
@@ -3787,7 +3787,7 @@
         <v>86</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3801,7 +3801,7 @@
         <v>152</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3810,7 +3810,7 @@
         <v>86</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>35</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>95</v>
@@ -3830,7 +3830,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>97</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>98</v>
@@ -3853,7 +3853,7 @@
         <v>33</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>99</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>100</v>
@@ -3876,7 +3876,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>101</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>102</v>
@@ -3899,7 +3899,7 @@
         <v>33</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>103</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>104</v>
@@ -3922,7 +3922,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>105</v>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>106</v>
@@ -3945,7 +3945,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>107</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>108</v>
@@ -3968,7 +3968,7 @@
         <v>33</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>109</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>110</v>
@@ -3991,7 +3991,7 @@
         <v>33</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>111</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>112</v>
@@ -4014,7 +4014,7 @@
         <v>33</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>113</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>114</v>
@@ -4037,7 +4037,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>115</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>116</v>
@@ -4060,7 +4060,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>117</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>118</v>
@@ -4083,7 +4083,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>119</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>120</v>
@@ -4106,7 +4106,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>121</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>122</v>
@@ -4129,7 +4129,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>123</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>124</v>
@@ -4152,7 +4152,7 @@
         <v>33</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>125</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>126</v>
@@ -4175,7 +4175,7 @@
         <v>33</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>127</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>128</v>
@@ -4198,7 +4198,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>129</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>130</v>
@@ -4221,7 +4221,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>131</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>132</v>
@@ -4244,7 +4244,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>133</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>134</v>
@@ -4267,7 +4267,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>135</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>136</v>
@@ -4290,7 +4290,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>137</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>138</v>
@@ -4313,7 +4313,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>139</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>140</v>
@@ -4336,7 +4336,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>141</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>142</v>
@@ -4359,7 +4359,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>143</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>144</v>
@@ -4382,7 +4382,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>145</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>146</v>
@@ -4405,7 +4405,7 @@
         <v>33</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>147</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>148</v>
@@ -4428,7 +4428,7 @@
         <v>33</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>149</v>
@@ -4442,22 +4442,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>59</v>
@@ -4465,19 +4465,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="E144" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4488,19 +4488,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="E145" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>35</v>
@@ -4511,19 +4511,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="E146" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4534,19 +4534,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>35</v>
@@ -4557,10 +4557,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>33</v>
@@ -4569,7 +4569,7 @@
         <v>86</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4592,7 +4592,7 @@
         <v>86</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>35</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>95</v>
@@ -4612,7 +4612,7 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>97</v>
@@ -4621,12 +4621,12 @@
         <v>35</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>98</v>
@@ -4635,7 +4635,7 @@
         <v>33</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>99</v>
@@ -4644,12 +4644,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>100</v>
@@ -4658,7 +4658,7 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>101</v>
@@ -4667,12 +4667,12 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>102</v>
@@ -4681,7 +4681,7 @@
         <v>33</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>103</v>
@@ -4690,12 +4690,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>104</v>
@@ -4704,7 +4704,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>105</v>
@@ -4713,12 +4713,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>106</v>
@@ -4727,7 +4727,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>107</v>
@@ -4736,12 +4736,12 @@
         <v>35</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>108</v>
@@ -4750,7 +4750,7 @@
         <v>33</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>109</v>
@@ -4759,12 +4759,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>110</v>
@@ -4773,7 +4773,7 @@
         <v>33</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>111</v>
@@ -4782,12 +4782,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>112</v>
@@ -4796,7 +4796,7 @@
         <v>33</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>113</v>
@@ -4805,12 +4805,12 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>114</v>
@@ -4819,7 +4819,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>115</v>
@@ -4828,12 +4828,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>116</v>
@@ -4842,7 +4842,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>117</v>
@@ -4851,12 +4851,12 @@
         <v>35</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>118</v>
@@ -4865,7 +4865,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>119</v>
@@ -4874,12 +4874,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>120</v>
@@ -4888,7 +4888,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>121</v>
@@ -4897,12 +4897,12 @@
         <v>35</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>122</v>
@@ -4911,7 +4911,7 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>123</v>
@@ -4920,12 +4920,12 @@
         <v>35</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>124</v>
@@ -4934,7 +4934,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>125</v>
@@ -4943,12 +4943,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>126</v>
@@ -4957,7 +4957,7 @@
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>127</v>
@@ -4966,12 +4966,12 @@
         <v>35</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>128</v>
@@ -4980,7 +4980,7 @@
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>129</v>
@@ -4989,12 +4989,12 @@
         <v>35</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>130</v>
@@ -5003,7 +5003,7 @@
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>131</v>
@@ -5012,12 +5012,12 @@
         <v>35</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>132</v>
@@ -5026,7 +5026,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>133</v>
@@ -5035,12 +5035,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>134</v>
@@ -5049,7 +5049,7 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>135</v>
@@ -5058,12 +5058,12 @@
         <v>35</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>136</v>
@@ -5072,7 +5072,7 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>137</v>
@@ -5081,12 +5081,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>138</v>
@@ -5095,7 +5095,7 @@
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>139</v>
@@ -5104,12 +5104,12 @@
         <v>35</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>140</v>
@@ -5118,7 +5118,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>141</v>
@@ -5127,12 +5127,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>142</v>
@@ -5141,7 +5141,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>143</v>
@@ -5150,12 +5150,12 @@
         <v>35</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>144</v>
@@ -5164,7 +5164,7 @@
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>145</v>
@@ -5173,12 +5173,12 @@
         <v>35</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>146</v>
@@ -5187,7 +5187,7 @@
         <v>33</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>147</v>
@@ -5196,12 +5196,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>148</v>
@@ -5210,7 +5210,7 @@
         <v>33</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>149</v>
@@ -5219,21 +5219,21 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>151</v>
@@ -5242,7 +5242,7 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="178">
@@ -5871,7 +5871,7 @@
         <v>175</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>33</v>
@@ -6515,7 +6515,7 @@
         <v>178</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>33</v>
@@ -7159,7 +7159,7 @@
         <v>181</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>33</v>
@@ -10287,7 +10287,7 @@
         <v>261</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>33</v>
@@ -10931,7 +10931,7 @@
         <v>264</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>33</v>
@@ -11575,7 +11575,7 @@
         <v>267</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>33</v>
@@ -12219,7 +12219,7 @@
         <v>270</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>33</v>
@@ -12863,7 +12863,7 @@
         <v>273</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>33</v>
@@ -13507,7 +13507,7 @@
         <v>276</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>33</v>
@@ -14151,7 +14151,7 @@
         <v>278</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>33</v>
@@ -14841,7 +14841,7 @@
         <v>278</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>33</v>
@@ -15968,7 +15968,7 @@
         <v>294</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>33</v>
@@ -16612,7 +16612,7 @@
         <v>297</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>33</v>
@@ -17463,7 +17463,7 @@
         <v>308</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>9</v>
